--- a/individual_results/avey/493.xlsx
+++ b/individual_results/avey/493.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.58688267143572</v>
+        <v>0.41311732856428</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
